--- a/FilesToImport/Beers_To_Import.xlsx
+++ b/FilesToImport/Beers_To_Import.xlsx
@@ -11,17 +11,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ColorUId</t>
+  </si>
+  <si>
+    <t>Blond</t>
+  </si>
+  <si>
+    <t>5A10EBA3-4442-4C52-9BC9-D21F7DB83877</t>
+  </si>
+  <si>
+    <t>Brune</t>
+  </si>
+  <si>
+    <t>F733E097-6A2B-41FA-B699-1311C1F16658</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>40E58617-891F-4504-9A4D-F654C35C4D01</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>9E8500A6-A55D-46AF-97FA-9B83F245E45A</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -37,9 +73,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -256,7 +298,51 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="43.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>